--- a/Results.xlsx
+++ b/Results.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>m</t>
   </si>
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,6 +140,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -148,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -158,6 +180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -211,11 +236,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Heart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Dataset - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Accuracy</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> vs Iteration</a:t>
+              <a:t> vs Dataset size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
@@ -299,7 +332,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -434,7 +467,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -568,7 +601,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -672,11 +705,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1480353904"/>
-        <c:axId val="1449021440"/>
+        <c:axId val="1415752240"/>
+        <c:axId val="1415845856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1480353904"/>
+        <c:axId val="1415752240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449021440"/>
+        <c:crossAx val="1415845856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449021440"/>
+        <c:axId val="1415845856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +907,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -889,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1480353904"/>
+        <c:crossAx val="1415752240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,6 +1033,809 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Diabetes Dataset - Accuracy vs Dataset</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2'!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Part 2'!$E$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2'!$E$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2'!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Part 2'!$E$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2'!$E$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2'!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Part 2'!$E$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2'!$E$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1449756032"/>
+        <c:axId val="1449344224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1449756032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Percentage of Training Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1449344224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1449344224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Percentage Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1449756032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.449222342190504"/>
+          <c:y val="0.935570541119546"/>
+          <c:w val="0.165984847075977"/>
+          <c:h val="0.0424467858065531"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1202,11 +2038,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1480283120"/>
-        <c:axId val="1480295456"/>
+        <c:axId val="1480688768"/>
+        <c:axId val="1480691616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1480283120"/>
+        <c:axId val="1480688768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1480295456"/>
+        <c:crossAx val="1480691616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1313,7 +2149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1480295456"/>
+        <c:axId val="1480691616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1480283120"/>
+        <c:crossAx val="1480688768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1475,7 +2311,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1688,11 +2524,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1478604896"/>
-        <c:axId val="1398694224"/>
+        <c:axId val="1482704880"/>
+        <c:axId val="1482707728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1478604896"/>
+        <c:axId val="1482704880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +2627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1398694224"/>
+        <c:crossAx val="1482707728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1799,7 +2635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1398694224"/>
+        <c:axId val="1482707728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +2746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1478604896"/>
+        <c:crossAx val="1482704880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2079,6 +2915,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3588,20 +4464,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3620,6 +4999,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3630,13 +5039,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>598713</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>807356</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3658,15 +5067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>576036</xdr:colOff>
+      <xdr:colOff>576035</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>34472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
+      <xdr:colOff>743856</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3951,10 +5360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:I21"/>
+  <dimension ref="D6:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3962,6 +5371,11 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -4255,13 +5669,308 @@
       <c r="I21" s="2">
         <f>AVERAGE(I9:I18)</f>
         <v>68.932038834951399</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3">
+        <v>50</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+      <c r="F28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>65</v>
+      </c>
+      <c r="I28" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>74</v>
+      </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>66</v>
+      </c>
+      <c r="I29" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>74</v>
+      </c>
+      <c r="F30">
+        <v>66</v>
+      </c>
+      <c r="G30">
+        <v>66</v>
+      </c>
+      <c r="H30">
+        <v>68</v>
+      </c>
+      <c r="I30" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>67</v>
+      </c>
+      <c r="I31" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+      <c r="H32">
+        <v>63</v>
+      </c>
+      <c r="I32" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>67</v>
+      </c>
+      <c r="F33">
+        <v>71</v>
+      </c>
+      <c r="G33">
+        <v>70</v>
+      </c>
+      <c r="H33">
+        <v>62</v>
+      </c>
+      <c r="I33" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="6">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>65</v>
+      </c>
+      <c r="G34">
+        <v>68</v>
+      </c>
+      <c r="H34">
+        <v>69</v>
+      </c>
+      <c r="I34" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="6">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>57</v>
+      </c>
+      <c r="H35">
+        <v>67</v>
+      </c>
+      <c r="I35" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="6">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <v>69</v>
+      </c>
+      <c r="H36">
+        <v>71</v>
+      </c>
+      <c r="I36" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="6">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>71</v>
+      </c>
+      <c r="F37">
+        <v>68</v>
+      </c>
+      <c r="G37">
+        <v>63</v>
+      </c>
+      <c r="H37">
+        <v>71</v>
+      </c>
+      <c r="I37" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38:H38" si="0">MIN(E28:E37)</f>
+        <v>64</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I38" s="2">
+        <f>MIN(I28:I37)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39:H39" si="1">MAX(E28:E37)</f>
+        <v>74</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="I39" s="2">
+        <f>MAX(I28:I37)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40:I40" si="2">AVERAGE(E28:E37)</f>
+        <v>69.8</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>66.8</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>65.3</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>66.900000000000006</v>
+      </c>
+      <c r="I40" s="2">
+        <f>AVERAGE(I28:I37)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E19:E21 F19:I21" formulaRange="1"/>
+    <ignoredError sqref="E19:E21 F19:I21 E38:I40" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4272,7 +5981,7 @@
   <dimension ref="D7:L12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
